--- a/SFE - InternalEnergy/LUKE_T40_P200.xlsx
+++ b/SFE - InternalEnergy/LUKE_T40_P200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - CostFunction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318501DC-884B-4283-AEB5-D0415647039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573387D3-B10F-44C0-BD70-ACE7B92CA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36900" yWindow="-5160" windowWidth="17700" windowHeight="5925" xr2:uid="{CB37A976-4C40-4294-9B4D-80D2518821EE}"/>
+    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{CB37A976-4C40-4294-9B4D-80D2518821EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -104,6 +106,2050 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mass g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>61.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.800000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA63-4C0F-BE09-87AC50F99DB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756338272"/>
+        <c:axId val="756345344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756338272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756345344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756345344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756338272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.90000000000000568</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80000000000000426</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.89999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.69999999999999574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.80000000000001137</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89999999999999147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.60000000000000853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6533-4EBE-B34F-E6B2F454B3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="756306656"/>
+        <c:axId val="756307904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="756306656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756307904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="756307904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="756306656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646D2510-EA52-7A31-9F24-56A71EA7CB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCF53C3-053D-1832-6D38-5F9E2F891C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,15 +2449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733366F4-B01F-44EF-ACA0-ABD71699AEC9}">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -431,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>40</v>
       </c>
@@ -451,361 +2497,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4">
-        <v>2.2999999999999998</v>
+        <v>1.7</v>
       </c>
       <c r="G4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <f>F4-F3</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="G5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H33" si="0">F5-F4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E6">
         <v>15</v>
       </c>
       <c r="F6">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="G6">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E7">
         <v>20</v>
       </c>
       <c r="F7">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="G7">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E8">
         <v>25</v>
       </c>
       <c r="F8">
-        <v>24.4</v>
+        <v>24.9</v>
       </c>
       <c r="G8">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>7.0999999999999979</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="G9">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4000000000000021</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E10">
         <v>35</v>
       </c>
       <c r="F10">
         <f>F9+3.7</f>
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6999999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E11">
         <v>40</v>
       </c>
       <c r="F11">
         <f>F9+7.2</f>
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="G11">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E12">
         <v>45</v>
       </c>
       <c r="F12">
         <f>F9+9.8</f>
-        <v>40.200000000000003</v>
+        <v>40.1</v>
       </c>
       <c r="G12">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E13">
         <v>50</v>
       </c>
       <c r="F13">
-        <f>F9+13</f>
-        <v>43.4</v>
+        <f>F9+12.5</f>
+        <v>42.8</v>
       </c>
       <c r="G13">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E14">
         <v>55</v>
       </c>
       <c r="F14">
-        <f>F9+15.2</f>
-        <v>45.599999999999994</v>
+        <f>F9+14.9</f>
+        <v>45.2</v>
       </c>
       <c r="G14">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>60</v>
       </c>
       <c r="F15">
         <f>F9+17.3</f>
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="G15">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>65</v>
       </c>
       <c r="F16">
-        <f>F9+18.9</f>
-        <v>49.3</v>
+        <f>F9+19.3</f>
+        <v>49.6</v>
       </c>
       <c r="G16">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>70</v>
       </c>
       <c r="F17">
-        <f>F9+20.5</f>
-        <v>50.9</v>
+        <f>F9+20.9</f>
+        <v>51.2</v>
       </c>
       <c r="G17">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>75</v>
       </c>
       <c r="F18">
-        <f>F9+22.3</f>
-        <v>52.7</v>
+        <f>F9+22.6</f>
+        <v>52.900000000000006</v>
       </c>
       <c r="G18">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>80</v>
       </c>
       <c r="F19">
-        <f>F9+23.9</f>
-        <v>54.3</v>
+        <f>F9+24.1</f>
+        <v>54.400000000000006</v>
       </c>
       <c r="G19">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20">
         <v>85</v>
       </c>
       <c r="F20">
-        <f>F9+24.8</f>
-        <v>55.2</v>
+        <f>F9+25.5</f>
+        <v>55.8</v>
       </c>
       <c r="G20">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999915</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21">
         <v>90</v>
       </c>
       <c r="F21">
-        <f>F9+25.9</f>
-        <v>56.3</v>
+        <f>F9+26.4</f>
+        <v>56.7</v>
       </c>
       <c r="G21">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000568</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E22">
         <v>95</v>
       </c>
       <c r="F22">
-        <f>F9+27</f>
-        <v>57.4</v>
+        <f>F9+27.4</f>
+        <v>57.7</v>
       </c>
       <c r="G22">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23">
-        <f>F9+28</f>
-        <v>58.4</v>
+        <f>F9+28.3</f>
+        <v>58.6</v>
       </c>
       <c r="G23">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E24">
         <v>105</v>
       </c>
       <c r="F24">
-        <f>F9+29.1</f>
-        <v>59.5</v>
+        <f>F9+29.3</f>
+        <v>59.6</v>
       </c>
       <c r="G24">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E25">
         <v>110</v>
       </c>
       <c r="F25">
-        <f>F9+30</f>
-        <v>60.4</v>
+        <f>F9+30.1</f>
+        <v>60.400000000000006</v>
       </c>
       <c r="G25">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000426</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E26">
         <v>115</v>
       </c>
       <c r="F26">
-        <f>F25+1.1</f>
-        <v>61.5</v>
+        <f>F25+1</f>
+        <v>61.400000000000006</v>
       </c>
       <c r="G26">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E27">
         <v>120</v>
       </c>
       <c r="F27">
-        <f>F25+2.2</f>
-        <v>62.6</v>
+        <f>F25+2</f>
+        <v>62.400000000000006</v>
       </c>
       <c r="G27">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E28">
         <v>125</v>
       </c>
       <c r="F28">
-        <f>F25+3</f>
-        <v>63.4</v>
+        <f>F25+2.9</f>
+        <v>63.300000000000004</v>
       </c>
       <c r="G28">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E29">
         <v>130</v>
       </c>
       <c r="F29">
-        <f>F25+3.7</f>
-        <v>64.099999999999994</v>
+        <f>F25+3.6</f>
+        <v>64</v>
       </c>
       <c r="G29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69999999999999574</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E30">
         <v>135</v>
       </c>
       <c r="F30">
-        <f>F25+4.5</f>
-        <v>64.900000000000006</v>
+        <f>F25+4.4</f>
+        <v>64.800000000000011</v>
       </c>
       <c r="G30">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.80000000000001137</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E31">
         <v>140</v>
       </c>
       <c r="F31">
-        <f>F25+5.2</f>
-        <v>65.599999999999994</v>
+        <f>F25+5.3</f>
+        <v>65.7</v>
       </c>
       <c r="G31">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999147</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E32">
         <v>145</v>
       </c>
       <c r="F32">
-        <f>F25+5.9</f>
-        <v>66.3</v>
+        <f>F25+5.8</f>
+        <v>66.2</v>
       </c>
       <c r="G32">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33">
         <v>150</v>
       </c>
       <c r="F33">
-        <f>F25+6.5</f>
-        <v>66.900000000000006</v>
+        <f>F25+6.4</f>
+        <v>66.800000000000011</v>
       </c>
       <c r="G33">
         <v>0.38</v>
       </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SFE - InternalEnergy/LUKE_T40_P200.xlsx
+++ b/SFE - InternalEnergy/LUKE_T40_P200.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573387D3-B10F-44C0-BD70-ACE7B92CA0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56416CD-E0FE-42BE-A2AC-8014E9AB3F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-7230" windowWidth="16440" windowHeight="28440" xr2:uid="{CB37A976-4C40-4294-9B4D-80D2518821EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="56040" windowHeight="30495" xr2:uid="{CB37A976-4C40-4294-9B4D-80D2518821EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
